--- a/static/template/ring_template.xlsx
+++ b/static/template/ring_template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\下载\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\金博联\eiot_new\static\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EE93DFC-B857-4B03-9EF7-F904A7A2DEAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77FE755B-347B-4912-856A-E57B46D7059B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="157">
   <si>
     <t>序号</t>
   </si>
@@ -58,9 +58,6 @@
   </si>
   <si>
     <t>DeviceId（主题表）</t>
-  </si>
-  <si>
-    <t>虚假020284</t>
   </si>
   <si>
     <t>868681144632923</t>
@@ -1016,7 +1013,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1071,31 +1068,31 @@
       <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>11</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>12</v>
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="G2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="I2" s="9" t="s">
         <v>16</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>17</v>
       </c>
       <c r="J2" s="9"/>
       <c r="K2" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
@@ -1103,32 +1100,32 @@
         <v>2</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" s="16"/>
       <c r="D3" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="F3" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="G3" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="4" t="s">
+      <c r="K3" s="17" t="s">
         <v>22</v>
-      </c>
-      <c r="K3" s="17" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
@@ -1136,32 +1133,32 @@
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" s="16"/>
       <c r="D4" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="17" t="s">
         <v>152</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="17" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
@@ -1169,32 +1166,32 @@
         <v>4</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" s="16"/>
       <c r="D5" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="17" t="s">
         <v>154</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" s="17" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
@@ -1202,32 +1199,32 @@
         <v>5</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E6" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="17" t="s">
         <v>156</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K6" s="17" t="s">
-        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -1279,674 +1276,674 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>49</v>
-      </c>
       <c r="D8" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>51</v>
-      </c>
       <c r="C9" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>53</v>
-      </c>
       <c r="C10" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="C11" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="C12" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="C13" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="C14" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>64</v>
-      </c>
       <c r="D14" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>66</v>
-      </c>
       <c r="C15" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>68</v>
-      </c>
       <c r="C16" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="C17" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>70</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>73</v>
-      </c>
       <c r="C18" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>75</v>
-      </c>
       <c r="C19" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="C20" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>78</v>
-      </c>
       <c r="D20" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>80</v>
-      </c>
       <c r="C21" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>82</v>
-      </c>
       <c r="C22" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>84</v>
-      </c>
       <c r="C23" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="C24" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>89</v>
-      </c>
       <c r="C25" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="C26" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="D26" s="6" t="s">
         <v>92</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>95</v>
-      </c>
       <c r="C27" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="C28" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>100</v>
-      </c>
       <c r="C29" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="C30" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D30" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="C31" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="D31" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="C32" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="C33" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D33" s="4" t="s">
         <v>112</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="C34" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D34" s="4" t="s">
         <v>115</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="C35" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D35" s="4" t="s">
         <v>118</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="C36" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D36" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="C37" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="C37" s="4" t="s">
-        <v>125</v>
-      </c>
       <c r="D37" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>127</v>
-      </c>
       <c r="C38" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>129</v>
-      </c>
       <c r="C39" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B40" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B40" s="3" t="s">
-        <v>131</v>
-      </c>
       <c r="C40" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="C41" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D41" s="4" t="s">
         <v>133</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="C42" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D42" s="4" t="s">
         <v>136</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="C43" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C43" s="4" t="s">
-        <v>140</v>
-      </c>
       <c r="D43" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B44" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="B44" s="3" t="s">
-        <v>142</v>
-      </c>
       <c r="C44" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B45" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="B45" s="3" t="s">
-        <v>144</v>
-      </c>
       <c r="C45" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B46" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="B46" s="3" t="s">
-        <v>146</v>
-      </c>
       <c r="C46" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B47" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="C47" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D47" s="4" t="s">
         <v>148</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B48" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B48" s="3" t="s">
-        <v>151</v>
-      </c>
       <c r="C48" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/static/template/ring_template.xlsx
+++ b/static/template/ring_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\金博联\eiot_new\static\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77FE755B-347B-4912-856A-E57B46D7059B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91508058-5FFA-446F-AD1A-2E044A15683C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="159">
   <si>
     <t>序号</t>
   </si>
@@ -516,12 +516,19 @@
   <si>
     <t>xujia020284mojie4</t>
   </si>
+  <si>
+    <t>安装位置</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>深圳市福田中心区福中三路</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -547,6 +554,14 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="4">
@@ -598,7 +613,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -625,35 +640,74 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="14">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1010,26 +1064,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.125" customWidth="1"/>
-    <col min="2" max="2" width="20.25" customWidth="1"/>
-    <col min="3" max="3" width="22.5" customWidth="1"/>
-    <col min="4" max="4" width="28.375" customWidth="1"/>
-    <col min="5" max="5" width="19.75" customWidth="1"/>
-    <col min="6" max="6" width="19.375" customWidth="1"/>
-    <col min="7" max="9" width="17.125" customWidth="1"/>
-    <col min="10" max="10" width="17.75" customWidth="1"/>
-    <col min="11" max="11" width="39.875" customWidth="1"/>
+    <col min="2" max="2" width="20.25" style="16" customWidth="1"/>
+    <col min="3" max="3" width="22.5" style="16" customWidth="1"/>
+    <col min="4" max="4" width="17.125" style="16" customWidth="1"/>
+    <col min="5" max="5" width="21.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.375" style="16" customWidth="1"/>
+    <col min="7" max="7" width="13.125" style="16" customWidth="1"/>
+    <col min="8" max="8" width="13.375" style="16" customWidth="1"/>
+    <col min="9" max="9" width="14.625" style="16" customWidth="1"/>
+    <col min="10" max="10" width="14.25" style="16" customWidth="1"/>
+    <col min="11" max="11" width="27.375" style="16" customWidth="1"/>
+    <col min="12" max="12" width="26.375" style="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1063,22 +1120,25 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L1" s="11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11" t="s">
+      <c r="D2" s="13"/>
+      <c r="E2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G2" s="9" t="s">
@@ -1091,167 +1151,186 @@
         <v>16</v>
       </c>
       <c r="J2" s="9"/>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A3" s="14">
+      <c r="L2" s="9" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A3" s="10">
         <v>2</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16" t="s">
+      <c r="C3" s="14"/>
+      <c r="D3" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="17" t="s">
+      <c r="K3" s="10" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A4" s="14">
+      <c r="L3" s="9"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A4" s="10">
         <v>3</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16" t="s">
+      <c r="C4" s="14"/>
+      <c r="D4" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="I4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="17" t="s">
+      <c r="K4" s="10" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A5" s="14">
+      <c r="L4" s="9"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A5" s="10">
         <v>4</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16" t="s">
+      <c r="C5" s="14"/>
+      <c r="D5" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="H5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="17" t="s">
+      <c r="K5" s="10" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A6" s="14">
+      <c r="L5" s="9"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A6" s="10">
         <v>5</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16" t="s">
+      <c r="C6" s="14"/>
+      <c r="D6" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="H6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="I6" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="K6" s="17" t="s">
+      <c r="K6" s="10" t="s">
         <v>156</v>
       </c>
+      <c r="L6" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="K1:K2 K7:K1048576">
-    <cfRule type="duplicateValues" dxfId="7" priority="24"/>
+  <conditionalFormatting sqref="K1:K2 K7:K1048576 L1">
+    <cfRule type="duplicateValues" dxfId="13" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="duplicateValues" dxfId="6" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
-    <cfRule type="duplicateValues" dxfId="5" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="duplicateValues" dxfId="4" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D6">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E6">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:K6">
-    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C6">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2">
+    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L3">
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L4">
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L5">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/static/template/ring_template.xlsx
+++ b/static/template/ring_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\金博联\eiot_new\static\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91508058-5FFA-446F-AD1A-2E044A15683C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0001E57-24C4-402D-9C83-DAE5841A5819}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,15 +46,6 @@
   </si>
   <si>
     <t>安装日期</t>
-  </si>
-  <si>
-    <t>所在台区</t>
-  </si>
-  <si>
-    <t>所在配电房</t>
-  </si>
-  <si>
-    <t>所在配电柜</t>
   </si>
   <si>
     <t>DeviceId（主题表）</t>
@@ -523,12 +514,24 @@
   <si>
     <t>深圳市福田中心区福中三路</t>
   </si>
+  <si>
+    <t>所在台区</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>所在配电柜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>所在配电房</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -563,8 +566,17 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -583,8 +595,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -607,13 +624,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -661,25 +696,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="输出" xfId="1" builtinId="21"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1064,10 +1092,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1080,8 +1108,8 @@
     <col min="6" max="6" width="12.375" style="16" customWidth="1"/>
     <col min="7" max="7" width="13.125" style="16" customWidth="1"/>
     <col min="8" max="8" width="13.375" style="16" customWidth="1"/>
-    <col min="9" max="9" width="14.625" style="16" customWidth="1"/>
-    <col min="10" max="10" width="14.25" style="16" customWidth="1"/>
+    <col min="9" max="9" width="17" style="16" customWidth="1"/>
+    <col min="10" max="10" width="17.5" style="16" customWidth="1"/>
     <col min="11" max="11" width="27.375" style="16" customWidth="1"/>
     <col min="12" max="12" width="26.375" style="16" customWidth="1"/>
   </cols>
@@ -1108,20 +1136,20 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="L1" s="11" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -1129,33 +1157,33 @@
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D2" s="13"/>
       <c r="E2" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="I2" s="9" t="s">
         <v>13</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>16</v>
       </c>
       <c r="J2" s="9"/>
       <c r="K2" s="9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
@@ -1163,32 +1191,32 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C3" s="14"/>
       <c r="D3" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="K3" s="10" t="s">
         <v>19</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>22</v>
       </c>
       <c r="L3" s="9"/>
     </row>
@@ -1197,32 +1225,32 @@
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C4" s="14"/>
       <c r="D4" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="15" t="s">
-        <v>21</v>
-      </c>
       <c r="K4" s="10" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="L4" s="9"/>
     </row>
@@ -1231,32 +1259,32 @@
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C5" s="14"/>
       <c r="D5" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="J5" s="15" t="s">
-        <v>21</v>
-      </c>
       <c r="K5" s="10" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="L5" s="9"/>
     </row>
@@ -1265,72 +1293,75 @@
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="J6" s="15" t="s">
-        <v>21</v>
-      </c>
       <c r="K6" s="10" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="L6" s="15"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="K11" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="K1:K2 K7:K1048576 L1">
-    <cfRule type="duplicateValues" dxfId="13" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="duplicateValues" dxfId="12" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
-    <cfRule type="duplicateValues" dxfId="11" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="duplicateValues" dxfId="10" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D6">
-    <cfRule type="duplicateValues" dxfId="9" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E6">
-    <cfRule type="duplicateValues" dxfId="8" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:K6">
-    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C6">
-    <cfRule type="duplicateValues" dxfId="6" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2">
-    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3">
-    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1355,674 +1386,674 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D26" s="6" t="s">
         <v>89</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D31" s="4" t="s">
         <v>103</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>

--- a/static/template/ring_template.xlsx
+++ b/static/template/ring_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\金博联\eiot_new\static\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0001E57-24C4-402D-9C83-DAE5841A5819}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9D0CF95-0A35-4598-9FE7-85CEF4E15493}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="159">
   <si>
     <t>序号</t>
   </si>
@@ -1095,7 +1095,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1218,7 +1218,9 @@
       <c r="K3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="9"/>
+      <c r="L3" s="9" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="10">
@@ -1252,7 +1254,9 @@
       <c r="K4" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="L4" s="9"/>
+      <c r="L4" s="9" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="10">
@@ -1286,7 +1290,9 @@
       <c r="K5" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="L5" s="9"/>
+      <c r="L5" s="9" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" s="10">
@@ -1320,7 +1326,9 @@
       <c r="K6" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="L6" s="15"/>
+      <c r="L6" s="9" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="K11" s="17"/>
@@ -1351,17 +1359,8 @@
   <conditionalFormatting sqref="C3:C6">
     <cfRule type="duplicateValues" dxfId="4" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2">
+  <conditionalFormatting sqref="L2:L6">
     <cfRule type="duplicateValues" dxfId="3" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L3">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L4">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L5">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
